--- a/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
+++ b/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucabesana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9192A921-9AC9-994F-9CE0-34D530357AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47A474-46A3-4C46-BA6E-1D6FE24A66A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -79,6 +82,15 @@
   </si>
   <si>
     <t xml:space="preserve">Luca Besana </t>
+  </si>
+  <si>
+    <t>Scrum, meeting,  studying</t>
+  </si>
+  <si>
+    <t>Scrum, meeting with database, setting up comments</t>
+  </si>
+  <si>
+    <t>Meeting with frontend, research, documenting and finishing comment uploading to database</t>
   </si>
 </sst>
 </file>
@@ -486,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,8 +664,12 @@
         <f t="shared" si="1"/>
         <v>44136</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -671,8 +687,12 @@
         <f t="shared" si="1"/>
         <v>44143</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="13">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -690,8 +710,12 @@
         <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">

--- a/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
+++ b/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucabesana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47A474-46A3-4C46-BA6E-1D6FE24A66A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E29A00-4078-6A46-BD58-230CD1CC7739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Meeting with frontend, research, documenting and finishing comment uploading to database</t>
+  </si>
+  <si>
+    <t>Learning and implementing websockets and finishing message deletion</t>
+  </si>
+  <si>
+    <t>Scrum, working on message deletion backend and learning about websockets</t>
+  </si>
+  <si>
+    <t>Scrum, meetings, implementing backend for panic buttons</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,8 +742,12 @@
         <f t="shared" si="1"/>
         <v>44157</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -752,8 +765,12 @@
         <f t="shared" si="1"/>
         <v>44164</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="13">
+        <v>8</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -771,8 +788,12 @@
         <f t="shared" si="1"/>
         <v>44171</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="13">
+        <v>7</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">

--- a/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
+++ b/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucabesana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E29A00-4078-6A46-BD58-230CD1CC7739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137D6C8-302E-B040-8C33-8F03FB21061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Scrum, meetings, implementing backend for panic buttons</t>
+  </si>
+  <si>
+    <t>Meetings, study, web sockets research and oanic buttons</t>
+  </si>
+  <si>
+    <t>Meetings, study and panic buttons</t>
+  </si>
+  <si>
+    <t>Meetings and study</t>
+  </si>
+  <si>
+    <t>Meetings, working on the poster and panic button test unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study and general fixes </t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,10 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +554,7 @@
       <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>313137159</v>
       </c>
     </row>
@@ -577,14 +589,14 @@
       <c r="C7" s="6">
         <v>44102</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <f>C7+6</f>
         <v>44108</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -600,14 +612,14 @@
         <f>C7+7</f>
         <v>44109</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <f t="shared" ref="D8:D22" si="1">C8+6</f>
         <v>44115</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -623,14 +635,14 @@
         <f t="shared" ref="C9:C22" si="2">C8+7</f>
         <v>44116</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>44122</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -646,14 +658,14 @@
         <f t="shared" si="2"/>
         <v>44123</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>44129</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -669,14 +681,14 @@
         <f t="shared" si="2"/>
         <v>44130</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>44136</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>7</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -692,14 +704,14 @@
         <f t="shared" si="2"/>
         <v>44137</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>44143</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -715,14 +727,14 @@
         <f t="shared" si="2"/>
         <v>44144</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>7</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -738,14 +750,14 @@
         <f t="shared" si="2"/>
         <v>44151</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>44157</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>7</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -761,14 +773,14 @@
         <f t="shared" si="2"/>
         <v>44158</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>44164</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>8</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -784,14 +796,14 @@
         <f t="shared" si="2"/>
         <v>44165</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>44171</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>7</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -807,12 +819,16 @@
         <f t="shared" si="2"/>
         <v>44172</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="12">
+        <v>8</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -826,12 +842,16 @@
         <f t="shared" si="2"/>
         <v>44179</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="12">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
@@ -845,12 +865,16 @@
         <f t="shared" si="2"/>
         <v>44186</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
@@ -864,12 +888,16 @@
         <f t="shared" si="2"/>
         <v>44193</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="12">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
@@ -883,12 +911,16 @@
         <f t="shared" si="2"/>
         <v>44200</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="12">
+        <v>8</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
@@ -902,12 +934,12 @@
         <f t="shared" si="2"/>
         <v>44207</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
+++ b/Documentation/SCRUM/TimeLog_(Luca_Besana).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucabesana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137D6C8-302E-B040-8C33-8F03FB21061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36ABAD-D338-E342-880C-1A7DDF6086A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t xml:space="preserve">Study and general fixes </t>
+  </si>
+  <si>
+    <t>Meetings, fixes and poster</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,8 +941,12 @@
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="12">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
